--- a/altmetrics/citations_BERT.xlsx
+++ b/altmetrics/citations_BERT.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="56">
   <si>
     <t xml:space="preserve">NASA ADS</t>
   </si>
@@ -187,6 +187,9 @@
   <si>
     <t xml:space="preserve">2020-12</t>
   </si>
+  <si>
+    <t xml:space="preserve">NASA ADS/10</t>
+  </si>
 </sst>
 </file>
 
@@ -197,11 +200,12 @@
     <numFmt numFmtId="165" formatCode="YYYY\-MM\-DD"/>
     <numFmt numFmtId="166" formatCode="MMM\-YY"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Noto Sans CJK JP Regular"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -217,18 +221,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DejaVu Sans"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="13"/>
@@ -250,20 +242,13 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="24"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="24"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DejaVu Sans"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -444,10 +429,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.123273181832751"/>
-          <c:y val="0.102208807792564"/>
-          <c:w val="0.601557742235328"/>
-          <c:h val="0.404239264645356"/>
+          <c:x val="0.123268334318167"/>
+          <c:y val="0.102215819441586"/>
+          <c:w val="0.60153634035848"/>
+          <c:h val="0.404198394731426"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -784,8 +769,8 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="50213993"/>
-        <c:axId val="85193774"/>
+        <c:axId val="10441913"/>
+        <c:axId val="31036241"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -959,11 +944,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="59437501"/>
-        <c:axId val="7047138"/>
+        <c:axId val="27375867"/>
+        <c:axId val="28959989"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="50213993"/>
+        <c:axId val="10441913"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1037,14 +1022,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85193774"/>
+        <c:crossAx val="31036241"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85193774"/>
+        <c:axId val="31036241"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1128,12 +1113,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50213993"/>
+        <c:crossAx val="10441913"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="59437501"/>
+        <c:axId val="27375867"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1169,14 +1154,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7047138"/>
+        <c:crossAx val="28959989"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="7047138"/>
+        <c:axId val="28959989"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1250,7 +1235,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59437501"/>
+        <c:crossAx val="27375867"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1264,14 +1249,16 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
+      <c:legendPos val="r"/>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.82095579986538"/>
-          <c:y val="0.257031142817945"/>
+          <c:x val="0.820924430437923"/>
+          <c:y val="0.256980174247102"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1343,10 +1330,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.107421484296859"/>
-          <c:y val="0.0987503062974761"/>
-          <c:w val="0.654264186170567"/>
-          <c:h val="0.499877481009557"/>
+          <c:x val="0.107407787235497"/>
+          <c:y val="0.0987442572741194"/>
+          <c:w val="0.654257682972687"/>
+          <c:h val="0.499846860643185"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1717,8 +1704,8 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="60243868"/>
-        <c:axId val="92752856"/>
+        <c:axId val="95187222"/>
+        <c:axId val="88525890"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1909,11 +1896,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="18976146"/>
-        <c:axId val="28595407"/>
+        <c:axId val="75833214"/>
+        <c:axId val="13025777"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="60243868"/>
+        <c:axId val="95187222"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1987,14 +1974,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92752856"/>
+        <c:crossAx val="88525890"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92752856"/>
+        <c:axId val="88525890"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2078,12 +2065,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60243868"/>
+        <c:crossAx val="95187222"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="18976146"/>
+        <c:axId val="75833214"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2119,14 +2106,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="28595407"/>
+        <c:crossAx val="13025777"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="28595407"/>
+        <c:axId val="13025777"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2200,7 +2187,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="18976146"/>
+        <c:crossAx val="75833214"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2214,14 +2201,16 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
+      <c:legendPos val="r"/>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.851236914049477"/>
-          <c:y val="0.287919627542269"/>
+          <c:x val="0.851228933784569"/>
+          <c:y val="0.287901990811639"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2293,10 +2282,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.123271850266653"/>
-          <c:y val="0.102208807792564"/>
-          <c:w val="0.601548965657801"/>
-          <c:h val="0.404239264645356"/>
+          <c:x val="0.108176643091254"/>
+          <c:y val="0.102140211277267"/>
+          <c:w val="0.786027255476971"/>
+          <c:h val="0.72465358759775"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2304,6 +2293,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GAN!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NASA ADS/10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="004586"/>
@@ -2335,80 +2335,236 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>GAN!$B$13:$B$31</c:f>
+              <c:f>GAN!$B$9:$B$79</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="71"/>
                 <c:pt idx="0">
+                  <c:v>Jun-14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Jul-14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Aug-14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sep-14</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Oct-14</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>Nov-14</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
                   <c:v>Dec-14</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>Jan-15</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>Feb-15</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>Mar-15</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
                   <c:v>Apr-15</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="11">
                   <c:v>May-15</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="12">
                   <c:v>Jun-15</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>Jul-15</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>Aug-15</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>Sep-15</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>Oct-15</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>Nov-15</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>Dec-15</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
                   <c:v>Jan-16</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
                   <c:v>Feb-16</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="21">
                   <c:v>Mar-16</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="22">
                   <c:v>Apr-16</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>May-16</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Jun-16</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Jul-16</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Aug-16</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Sep-16</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Oct-16</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Nov-16</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Dec-16</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Jan-17</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Feb-17</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Mar-17</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Apr-17</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>May-17</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Jun-17</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Jul-17</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Aug-17</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Sep-17</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Oct-17</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Nov-17</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Dec-17</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Jan-18</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Feb-18</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Mar-18</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Apr-18</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>May-18</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Jun-18</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Jul-18</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>Aug-18</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>Sep-18</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>Oct-18</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>Nov-18</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>Dec-18</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>Jan-19</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Feb-19</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>Mar-19</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>Apr-19</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>May-19</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>Jun-19</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>Jul-19</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>Aug-19</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>Sep-19</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>Oct-19</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>Nov-19</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>Dec-19</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>Jan-20</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>Feb-20</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>Mar-20</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GAN!$C$13:$C$30</c:f>
+              <c:f>GAN!$C$9:$C$79</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="71"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2417,7 +2573,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2444,7 +2600,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -2456,7 +2612,166 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v/>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2466,6 +2781,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GAN!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tweets</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="ff420e"/>
@@ -2497,83 +2823,239 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>GAN!$B$13:$B$31</c:f>
+              <c:f>GAN!$B$9:$B$79</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="71"/>
                 <c:pt idx="0">
+                  <c:v>Jun-14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Jul-14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Aug-14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sep-14</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Oct-14</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>Nov-14</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
                   <c:v>Dec-14</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>Jan-15</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>Feb-15</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>Mar-15</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
                   <c:v>Apr-15</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="11">
                   <c:v>May-15</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="12">
                   <c:v>Jun-15</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>Jul-15</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>Aug-15</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>Sep-15</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>Oct-15</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>Nov-15</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>Dec-15</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
                   <c:v>Jan-16</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
                   <c:v>Feb-16</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="21">
                   <c:v>Mar-16</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="22">
                   <c:v>Apr-16</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>May-16</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Jun-16</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Jul-16</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Aug-16</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Sep-16</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Oct-16</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Nov-16</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Dec-16</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Jan-17</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Feb-17</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Mar-17</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Apr-17</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>May-17</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Jun-17</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Jul-17</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Aug-17</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Sep-17</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Oct-17</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Nov-17</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Dec-17</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Jan-18</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Feb-18</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Mar-18</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Apr-18</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>May-18</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Jun-18</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Jul-18</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>Aug-18</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>Sep-18</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>Oct-18</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>Nov-18</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>Dec-18</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>Jan-19</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Feb-19</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>Mar-19</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>Apr-19</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>May-19</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>Jun-19</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>Jul-19</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>Aug-19</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>Sep-19</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>Oct-19</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>Nov-19</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>Dec-19</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>Jan-20</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>Feb-20</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>Mar-20</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GAN!$F$13:$F$30</c:f>
+              <c:f>GAN!$F$9:$F$79</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="71"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2582,7 +3064,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -2594,7 +3076,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -2603,22 +3085,181 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2852</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1646</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v/>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2633,14 +3274,25 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="67426331"/>
-        <c:axId val="81497432"/>
+        <c:axId val="90479770"/>
+        <c:axId val="2231853"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GAN!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Followers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="ffd320"/>
@@ -2672,83 +3324,239 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>GAN!$B$13:$B$31</c:f>
+              <c:f>GAN!$B$9:$B$79</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="71"/>
                 <c:pt idx="0">
+                  <c:v>Jun-14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Jul-14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Aug-14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sep-14</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Oct-14</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>Nov-14</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
                   <c:v>Dec-14</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>Jan-15</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>Feb-15</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>Mar-15</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
                   <c:v>Apr-15</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="11">
                   <c:v>May-15</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="12">
                   <c:v>Jun-15</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>Jul-15</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>Aug-15</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>Sep-15</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>Oct-15</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>Nov-15</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>Dec-15</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
                   <c:v>Jan-16</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
                   <c:v>Feb-16</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="21">
                   <c:v>Mar-16</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="22">
                   <c:v>Apr-16</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>May-16</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Jun-16</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Jul-16</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Aug-16</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Sep-16</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Oct-16</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Nov-16</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Dec-16</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Jan-17</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Feb-17</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Mar-17</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Apr-17</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>May-17</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Jun-17</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Jul-17</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Aug-17</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Sep-17</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Oct-17</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Nov-17</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Dec-17</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Jan-18</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Feb-18</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Mar-18</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Apr-18</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>May-18</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Jun-18</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Jul-18</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>Aug-18</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>Sep-18</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>Oct-18</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>Nov-18</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>Dec-18</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>Jan-19</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Feb-19</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>Mar-19</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>Apr-19</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>May-19</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>Jun-19</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>Jul-19</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>Aug-19</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>Sep-19</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>Oct-19</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>Nov-19</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>Dec-19</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>Jan-20</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>Feb-20</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>Mar-20</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GAN!$H$13:$H$30</c:f>
+              <c:f>GAN!$H$9:$H$79</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="71"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>57699</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2042</c:v>
+                  <c:v>79737</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>6044</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2757,7 +3565,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2042</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -2769,7 +3577,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9949</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -2778,22 +3586,181 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9949</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>257882</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>4856</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>3374</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
                   <c:v>95408</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
                   <c:v>85</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="21">
                   <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>529</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4388</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>488</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2631</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14415</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>13983</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>18728</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9809</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6320</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>11790</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5118</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>273538</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>101265</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8934</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2767</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>16117</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2551</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>346499</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>59803</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9604</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3015</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>547</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>10705</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>83769</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5655</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>178659</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>109297</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3470492</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>472900</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>172620</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4328</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>304794</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>12494</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3529</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>12572</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3429</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>10770</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>126857</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>12278</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>116960</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1069</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v/>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2808,11 +3775,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="81580777"/>
-        <c:axId val="20687666"/>
+        <c:axId val="26231789"/>
+        <c:axId val="30988605"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="67426331"/>
+        <c:axId val="90479770"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2886,14 +3853,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81497432"/>
+        <c:crossAx val="2231853"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81497432"/>
+        <c:axId val="2231853"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2977,12 +3944,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67426331"/>
+        <c:crossAx val="90479770"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="81580777"/>
+        <c:axId val="26231789"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3018,14 +3985,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="20687666"/>
+        <c:crossAx val="30988605"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="20687666"/>
+        <c:axId val="30988605"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3099,7 +4066,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81580777"/>
+        <c:crossAx val="26231789"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3113,14 +4080,8 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.820951798634464"/>
-          <c:y val="0.257031142817945"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3192,10 +4153,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.107409170236395"/>
-          <c:y val="0.0987503062974761"/>
-          <c:w val="0.654265164736369"/>
-          <c:h val="0.499877481009557"/>
+          <c:x val="0.107398952598362"/>
+          <c:y val="0.0987684578150849"/>
+          <c:w val="0.654250033570565"/>
+          <c:h val="0.499846823111329"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -4184,8 +5145,8 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="7642700"/>
-        <c:axId val="37726645"/>
+        <c:axId val="82675117"/>
+        <c:axId val="51270742"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4685,11 +5646,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="79818932"/>
-        <c:axId val="59305811"/>
+        <c:axId val="17204392"/>
+        <c:axId val="3998256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="7642700"/>
+        <c:axId val="82675117"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4763,14 +5724,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37726645"/>
+        <c:crossAx val="51270742"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="37726645"/>
+        <c:axId val="51270742"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4854,12 +5815,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7642700"/>
+        <c:crossAx val="82675117"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="79818932"/>
+        <c:axId val="17204392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4895,14 +5856,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59305811"/>
+        <c:crossAx val="3998256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59305811"/>
+        <c:axId val="3998256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4976,7 +5937,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79818932"/>
+        <c:crossAx val="17204392"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4990,6 +5951,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
+      <c:legendPos val="r"/>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
@@ -4998,6 +5960,7 @@
           <c:y val="0.287919627542269"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5069,10 +6032,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.107409170236395"/>
-          <c:y val="0.0987442572741194"/>
-          <c:w val="0.654265164736369"/>
-          <c:h val="0.499846860643185"/>
+          <c:x val="0.107398952598362"/>
+          <c:y val="0.0987624065678226"/>
+          <c:w val="0.654250033570565"/>
+          <c:h val="0.499816198995221"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -5573,8 +6536,8 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="84380920"/>
-        <c:axId val="79458904"/>
+        <c:axId val="94936018"/>
+        <c:axId val="2409511"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6074,11 +7037,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="96609252"/>
-        <c:axId val="75530755"/>
+        <c:axId val="33820588"/>
+        <c:axId val="81554670"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="84380920"/>
+        <c:axId val="94936018"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6152,14 +7115,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79458904"/>
+        <c:crossAx val="2409511"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79458904"/>
+        <c:axId val="2409511"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6243,12 +7206,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84380920"/>
+        <c:crossAx val="94936018"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="96609252"/>
+        <c:axId val="33820588"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6284,14 +7247,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75530755"/>
+        <c:crossAx val="81554670"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75530755"/>
+        <c:axId val="81554670"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6365,7 +7328,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96609252"/>
+        <c:crossAx val="33820588"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6379,6 +7342,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
+      <c:legendPos val="r"/>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
@@ -6387,6 +7351,7 @@
           <c:y val="0.287901990811639"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -6458,10 +7423,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.107426423883125"/>
-          <c:y val="0.0987503062974761"/>
-          <c:w val="0.654271649375397"/>
-          <c:h val="0.499877481009557"/>
+          <c:x val="0.107410894418292"/>
+          <c:y val="0.0987684578150849"/>
+          <c:w val="0.654256893073302"/>
+          <c:h val="0.499846823111329"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -6962,8 +7927,8 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="46651522"/>
-        <c:axId val="56534955"/>
+        <c:axId val="70606687"/>
+        <c:axId val="96122976"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7463,11 +8428,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="80899974"/>
-        <c:axId val="10016697"/>
+        <c:axId val="54390193"/>
+        <c:axId val="80415252"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="46651522"/>
+        <c:axId val="70606687"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7541,14 +8506,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56534955"/>
+        <c:crossAx val="96122976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="56534955"/>
+        <c:axId val="96122976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7632,12 +8597,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46651522"/>
+        <c:crossAx val="70606687"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="80899974"/>
+        <c:axId val="54390193"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7673,14 +8638,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10016697"/>
+        <c:crossAx val="80415252"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="10016697"/>
+        <c:axId val="80415252"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7754,7 +8719,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80899974"/>
+        <c:crossAx val="54390193"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7768,6 +8733,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
+      <c:legendPos val="r"/>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
@@ -7776,6 +8742,7 @@
           <c:y val="0.287919627542269"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -7808,9 +8775,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>580320</xdr:colOff>
+      <xdr:colOff>579960</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>128520</xdr:rowOff>
+      <xdr:rowOff>128160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7819,7 +8786,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1758240" y="5081760"/>
-        <a:ext cx="11242440" cy="5247720"/>
+        <a:ext cx="10965960" cy="5247360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7838,9 +8805,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>173520</xdr:colOff>
+      <xdr:colOff>173160</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>136440</xdr:rowOff>
+      <xdr:rowOff>136080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7848,8 +8815,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8197200" y="2193480"/>
-        <a:ext cx="10797480" cy="5877000"/>
+        <a:off x="8035200" y="2193480"/>
+        <a:ext cx="10530720" cy="5876640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7866,16 +8833,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>8640</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>135000</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>333360</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>147600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>404280</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>39960</xdr:rowOff>
+      <xdr:colOff>136440</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>59400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7883,8 +8850,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7209360" y="620640"/>
-        <a:ext cx="10596960" cy="5248440"/>
+        <a:off x="6829200" y="3709800"/>
+        <a:ext cx="10433160" cy="5255280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7903,9 +8870,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
-      <xdr:colOff>579240</xdr:colOff>
+      <xdr:colOff>578880</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>34920</xdr:rowOff>
+      <xdr:rowOff>34560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7913,8 +8880,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="16968600" y="5655960"/>
-        <a:ext cx="13614120" cy="5875560"/>
+        <a:off x="16701840" y="5655960"/>
+        <a:ext cx="13404240" cy="5875200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7933,9 +8900,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>45</xdr:col>
-      <xdr:colOff>412560</xdr:colOff>
+      <xdr:colOff>412200</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>46800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7943,8 +8910,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="13801680" y="162360"/>
-        <a:ext cx="13614120" cy="5875920"/>
+        <a:off x="13582440" y="162360"/>
+        <a:ext cx="13404240" cy="5875560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7956,16 +8923,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>271800</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>119160</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>271440</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>74880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>72000</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>3240</xdr:rowOff>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>71640</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>120600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7973,8 +8940,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3872160" y="4814640"/>
-        <a:ext cx="13601880" cy="5875560"/>
+        <a:off x="16216200" y="11247480"/>
+        <a:ext cx="13382640" cy="5875200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7995,13 +8962,12 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+      <selection pane="topLeft" activeCell="B72" activeCellId="0" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.6173469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.2142857142857"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8812,13 +9778,13 @@
   </sheetPr>
   <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J49" activeCellId="0" sqref="J49"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8826,7 +9792,7 @@
         <v>43910</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>1</v>
